--- a/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,38 +465,51 @@
           <t>Scalpel Type</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>PyType Total:</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Scalpel Total:</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Total comparisons:</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>PyType Wins:</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Wins:</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Accuracy</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr"/>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Accuracy over PyType</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,14 +500,28 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr"/>
+      <c r="F3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr"/>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>100</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/floodsung__Deep-Learning-Papers-Reading-Roadmap.xlsx
@@ -500,16 +500,16 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr"/>
+      <c r="D3" s="2" t="inlineStr"/>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr"/>
@@ -518,7 +518,7 @@
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
